--- a/battleworld/Excel/Sound_音效表.xlsx
+++ b/battleworld/Excel/Sound_音效表.xlsx
@@ -1,86 +1,246 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BC4EE9-4F81-44A6-89CA-2DF4DD14BBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
-    <t xml:space="preserve">  </t>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>guid</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>loopCount</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>唯一id</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>音效guid</t>
+  </si>
+  <si>
+    <t>音量</t>
+  </si>
+  <si>
+    <t>循环次数（0为无限循环）</t>
+  </si>
+  <si>
+    <t>音量范围
+如果是3D音效才填</t>
+  </si>
+  <si>
+    <t>虚空</t>
+  </si>
+  <si>
+    <t>主岛</t>
+  </si>
+  <si>
+    <t>遗迹岛屿</t>
+  </si>
+  <si>
+    <t>腐败岛</t>
+  </si>
+  <si>
+    <t>冰雪岛</t>
+  </si>
+  <si>
+    <t>熔岩岛</t>
+  </si>
+  <si>
+    <t>刀命中</t>
+  </si>
+  <si>
+    <t>技能命中</t>
+  </si>
+  <si>
+    <t>炼金成功音效</t>
+  </si>
+  <si>
+    <t>炼金失败音效</t>
+  </si>
+  <si>
+    <t>炼金期待音效</t>
+  </si>
+  <si>
+    <t>云顶背景音乐</t>
+  </si>
+  <si>
+    <t>秘境背景音乐</t>
+  </si>
+  <si>
+    <t>七夕背景音</t>
+  </si>
+  <si>
+    <t>参拜狗头佛祖音效</t>
+  </si>
+  <si>
+    <t>监控蛋仔拍照</t>
+  </si>
+  <si>
+    <t>拔萝卜</t>
+  </si>
+  <si>
+    <t>恐龙抗狼</t>
+  </si>
+  <si>
+    <t>小彗星刷新音效</t>
+  </si>
+  <si>
+    <t>只因哥音效</t>
+  </si>
+  <si>
+    <t>哦哈哟</t>
+  </si>
+  <si>
+    <t>上课铃声</t>
+  </si>
+  <si>
+    <t>我姓石喊麦</t>
+  </si>
+  <si>
+    <t>OI打招呼</t>
+  </si>
+  <si>
+    <t>流星背景音乐</t>
+  </si>
+  <si>
+    <t>亡灵岛背景音</t>
+  </si>
+  <si>
+    <t>运输船背景音</t>
+  </si>
+  <si>
+    <t>糖果岛背景音</t>
+  </si>
+  <si>
+    <t>太极岛</t>
+  </si>
+  <si>
+    <t>天空之城</t>
+  </si>
+  <si>
+    <t>乱斗战场音乐</t>
+  </si>
+  <si>
+    <t>拾取音效</t>
+  </si>
+  <si>
+    <t>下落到地面音效</t>
+  </si>
+  <si>
+    <t>乱斗安全区音乐</t>
+  </si>
+  <si>
+    <t>双杀</t>
+  </si>
+  <si>
+    <t>三杀</t>
+  </si>
+  <si>
+    <t>统治战场</t>
+  </si>
+  <si>
+    <t>超神</t>
+  </si>
+  <si>
+    <t>单手剑命中</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF606266"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5F7FA"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -115,27 +275,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -148,7 +308,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -443,60 +603,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:W199"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="22" min="22" style="0" width="13"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="6" width="28" customWidth="1"/>
+    <col min="7" max="22" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>float</v>
-      </c>
-      <c r="E1" s="2" t="str">
-        <v>int</v>
-      </c>
-      <c r="F1" s="1" t="str">
-        <v>float</v>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -515,24 +658,24 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>desc</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>guid</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>volume</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <v>loopCount</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <v>range</v>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -551,25 +694,24 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>唯一id</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>描述</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>音效guid</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>音量</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <v>循环次数（0为无限循环）</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <v>音量范围
-如果是3D音效才填</v>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -588,7 +730,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -612,12 +754,12 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="str">
-        <v>虚空</v>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>19650</v>
@@ -646,12 +788,12 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <v>主岛</v>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>148621</v>
@@ -680,12 +822,12 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <v>遗迹岛屿</v>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>19650</v>
@@ -714,12 +856,12 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="str">
-        <v>腐败岛</v>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>19650</v>
@@ -748,12 +890,12 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="str">
-        <v>冰雪岛</v>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>19652</v>
@@ -782,12 +924,12 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="str">
-        <v>熔岩岛</v>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>19650</v>
@@ -816,12 +958,12 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="str">
-        <v>刀命中</v>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="1">
         <v>73919</v>
@@ -852,12 +994,12 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="str">
-        <v>技能命中</v>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="1">
         <v>47418</v>
@@ -888,12 +1030,12 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="str">
-        <v>炼金成功音效</v>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="1">
         <v>157460</v>
@@ -922,12 +1064,12 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="str">
-        <v>炼金失败音效</v>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>120841</v>
@@ -956,12 +1098,12 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="str">
-        <v>炼金期待音效</v>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <v>120843</v>
@@ -990,12 +1132,12 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="str">
-        <v>云顶背景音乐</v>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="1">
         <v>140368</v>
@@ -1024,12 +1166,12 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="str">
-        <v>秘境背景音乐</v>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="1">
         <v>128884</v>
@@ -1058,12 +1200,12 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="str">
-        <v>七夕背景音</v>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C18" s="1">
         <v>131608</v>
@@ -1092,12 +1234,12 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="str">
-        <v>参拜狗头佛祖音效</v>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C19" s="1">
         <v>217406</v>
@@ -1128,12 +1270,12 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="str">
-        <v>监控蛋仔拍照</v>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C20" s="1">
         <v>134426</v>
@@ -1164,12 +1306,12 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="str">
-        <v>拔萝卜</v>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C21" s="1">
         <v>136202</v>
@@ -1200,12 +1342,12 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="str">
-        <v>恐龙抗狼</v>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C22" s="1">
         <v>169096</v>
@@ -1236,12 +1378,12 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="str">
-        <v>小彗星刷新音效</v>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C23" s="1">
         <v>122569</v>
@@ -1272,12 +1414,12 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="str">
-        <v>只因哥音效</v>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C24" s="1">
         <v>217829</v>
@@ -1308,12 +1450,12 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="str">
-        <v>哦哈哟</v>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C25" s="1">
         <v>217828</v>
@@ -1344,12 +1486,12 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="str">
-        <v>上课铃声</v>
+      <c r="B26" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C26" s="1">
         <v>217830</v>
@@ -1380,12 +1522,12 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B27" s="1" t="str">
-        <v>我姓石喊麦</v>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C27" s="1">
         <v>217978</v>
@@ -1416,12 +1558,12 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="B28" s="1" t="str">
-        <v>OI打招呼</v>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C28" s="1">
         <v>218071</v>
@@ -1452,12 +1594,12 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="1" t="str">
-        <v>流星背景音乐</v>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C29" s="1">
         <v>218688</v>
@@ -1486,12 +1628,12 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="1" t="str">
-        <v>亡灵岛背景音</v>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C30" s="1">
         <v>200445</v>
@@ -1520,12 +1662,12 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="B31" s="1" t="str">
-        <v>运输船背景音</v>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C31" s="1">
         <v>169120</v>
@@ -1554,12 +1696,12 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>28</v>
       </c>
-      <c r="B32" s="1" t="str">
-        <v>糖果岛背景音</v>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C32" s="1">
         <v>133480</v>
@@ -1588,12 +1730,12 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="B33" s="1" t="str">
-        <v>太极岛</v>
+      <c r="B33" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C33" s="1">
         <v>200523</v>
@@ -1622,12 +1764,12 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>30</v>
       </c>
-      <c r="B34" s="1" t="str">
-        <v>天空之城</v>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C34" s="1">
         <v>222919</v>
@@ -1656,30 +1798,30 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>31</v>
       </c>
-      <c r="B35" s="1" t="str">
-        <v>乱斗战场音乐</v>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C35" s="1">
         <v>106866</v>
       </c>
       <c r="D35" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>32</v>
       </c>
-      <c r="B36" s="1" t="str">
-        <v>拾取音效</v>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C36" s="1">
         <v>136202</v>
@@ -1708,12 +1850,12 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>33</v>
       </c>
-      <c r="B37" s="1" t="str">
-        <v>下落到地面音效</v>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C37" s="1">
         <v>130793</v>
@@ -1744,18 +1886,18 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>34</v>
       </c>
-      <c r="B38" s="1" t="str">
-        <v>乱斗安全区音乐</v>
+      <c r="B38" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C38" s="1">
         <v>202119</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -1778,12 +1920,12 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>35</v>
       </c>
-      <c r="B39" s="1" t="str">
-        <v>双杀</v>
+      <c r="B39" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C39" s="1">
         <v>237180</v>
@@ -1812,12 +1954,12 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="str">
-        <v>三杀</v>
+      <c r="B40" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C40" s="1">
         <v>237178</v>
@@ -1846,12 +1988,12 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>37</v>
       </c>
-      <c r="B41" s="1" t="str">
-        <v>统治战场</v>
+      <c r="B41" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C41" s="1">
         <v>237179</v>
@@ -1880,12 +2022,12 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>38</v>
       </c>
-      <c r="B42" s="1" t="str">
-        <v>超神</v>
+      <c r="B42" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C42" s="1">
         <v>237177</v>
@@ -1914,12 +2056,12 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:22" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>39</v>
       </c>
-      <c r="B43" s="1" t="str">
-        <v>单手剑命中</v>
+      <c r="B43" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C43" s="3">
         <v>265138</v>
@@ -1950,7 +2092,7 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1974,7 +2116,7 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1998,7 +2140,7 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2022,7 +2164,7 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2046,7 +2188,7 @@
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2070,7 +2212,7 @@
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2094,7 +2236,7 @@
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2118,7 +2260,7 @@
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2142,7 +2284,7 @@
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2166,7 +2308,7 @@
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2190,7 +2332,7 @@
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2214,7 +2356,7 @@
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2238,7 +2380,7 @@
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2262,7 +2404,7 @@
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2286,7 +2428,7 @@
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2310,7 +2452,7 @@
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2334,7 +2476,7 @@
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2358,7 +2500,7 @@
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2382,7 +2524,7 @@
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2406,7 +2548,7 @@
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2430,7 +2572,7 @@
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2454,7 +2596,7 @@
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2478,7 +2620,7 @@
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2502,7 +2644,7 @@
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2526,7 +2668,7 @@
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2550,7 +2692,7 @@
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2574,7 +2716,7 @@
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2598,7 +2740,7 @@
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2622,7 +2764,7 @@
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2646,7 +2788,7 @@
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2670,7 +2812,7 @@
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2694,7 +2836,7 @@
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2718,7 +2860,7 @@
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2742,7 +2884,7 @@
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2766,7 +2908,7 @@
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2790,7 +2932,7 @@
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2814,7 +2956,7 @@
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2838,7 +2980,7 @@
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2862,7 +3004,7 @@
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2886,7 +3028,7 @@
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2910,7 +3052,7 @@
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2934,7 +3076,7 @@
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2958,7 +3100,7 @@
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2982,7 +3124,7 @@
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3006,7 +3148,7 @@
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3030,7 +3172,7 @@
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3054,7 +3196,7 @@
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3078,7 +3220,7 @@
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3102,7 +3244,7 @@
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3126,7 +3268,7 @@
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3150,7 +3292,7 @@
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3174,7 +3316,7 @@
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3198,7 +3340,7 @@
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3222,7 +3364,7 @@
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3246,7 +3388,7 @@
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3270,7 +3412,7 @@
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3294,7 +3436,7 @@
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3318,7 +3460,7 @@
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3342,7 +3484,7 @@
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3366,7 +3508,7 @@
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3390,7 +3532,7 @@
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3414,7 +3556,7 @@
       <c r="U104" s="1"/>
       <c r="V104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3438,7 +3580,7 @@
       <c r="U105" s="1"/>
       <c r="V105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3462,7 +3604,7 @@
       <c r="U106" s="1"/>
       <c r="V106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3486,7 +3628,7 @@
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3510,7 +3652,7 @@
       <c r="U108" s="1"/>
       <c r="V108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3534,7 +3676,7 @@
       <c r="U109" s="1"/>
       <c r="V109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3558,7 +3700,7 @@
       <c r="U110" s="1"/>
       <c r="V110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3582,7 +3724,7 @@
       <c r="U111" s="1"/>
       <c r="V111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3606,7 +3748,7 @@
       <c r="U112" s="1"/>
       <c r="V112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3630,7 +3772,7 @@
       <c r="U113" s="1"/>
       <c r="V113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3654,7 +3796,7 @@
       <c r="U114" s="1"/>
       <c r="V114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3678,7 +3820,7 @@
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3702,7 +3844,7 @@
       <c r="U116" s="1"/>
       <c r="V116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3726,7 +3868,7 @@
       <c r="U117" s="1"/>
       <c r="V117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3750,7 +3892,7 @@
       <c r="U118" s="1"/>
       <c r="V118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3774,7 +3916,7 @@
       <c r="U119" s="1"/>
       <c r="V119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3798,7 +3940,7 @@
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3822,7 +3964,7 @@
       <c r="U121" s="1"/>
       <c r="V121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3846,7 +3988,7 @@
       <c r="U122" s="1"/>
       <c r="V122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3870,7 +4012,7 @@
       <c r="U123" s="1"/>
       <c r="V123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3894,7 +4036,7 @@
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3918,7 +4060,7 @@
       <c r="U125" s="1"/>
       <c r="V125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3942,7 +4084,7 @@
       <c r="U126" s="1"/>
       <c r="V126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3966,7 +4108,7 @@
       <c r="U127" s="1"/>
       <c r="V127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3990,7 +4132,7 @@
       <c r="U128" s="1"/>
       <c r="V128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4014,7 +4156,7 @@
       <c r="U129" s="1"/>
       <c r="V129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4038,7 +4180,7 @@
       <c r="U130" s="1"/>
       <c r="V130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4062,7 +4204,7 @@
       <c r="U131" s="1"/>
       <c r="V131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4086,7 +4228,7 @@
       <c r="U132" s="1"/>
       <c r="V132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4110,7 +4252,7 @@
       <c r="U133" s="1"/>
       <c r="V133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4134,7 +4276,7 @@
       <c r="U134" s="1"/>
       <c r="V134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4158,7 +4300,7 @@
       <c r="U135" s="1"/>
       <c r="V135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4182,7 +4324,7 @@
       <c r="U136" s="1"/>
       <c r="V136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4206,7 +4348,7 @@
       <c r="U137" s="1"/>
       <c r="V137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4230,7 +4372,7 @@
       <c r="U138" s="1"/>
       <c r="V138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4254,7 +4396,7 @@
       <c r="U139" s="1"/>
       <c r="V139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4278,7 +4420,7 @@
       <c r="U140" s="1"/>
       <c r="V140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4302,7 +4444,7 @@
       <c r="U141" s="1"/>
       <c r="V141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4326,7 +4468,7 @@
       <c r="U142" s="1"/>
       <c r="V142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4350,7 +4492,7 @@
       <c r="U143" s="1"/>
       <c r="V143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4374,7 +4516,7 @@
       <c r="U144" s="1"/>
       <c r="V144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4398,7 +4540,7 @@
       <c r="U145" s="1"/>
       <c r="V145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4422,7 +4564,7 @@
       <c r="U146" s="1"/>
       <c r="V146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4446,7 +4588,7 @@
       <c r="U147" s="1"/>
       <c r="V147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4470,7 +4612,7 @@
       <c r="U148" s="1"/>
       <c r="V148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4494,7 +4636,7 @@
       <c r="U149" s="1"/>
       <c r="V149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4518,7 +4660,7 @@
       <c r="U150" s="1"/>
       <c r="V150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4542,7 +4684,7 @@
       <c r="U151" s="1"/>
       <c r="V151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4566,7 +4708,7 @@
       <c r="U152" s="1"/>
       <c r="V152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4590,7 +4732,7 @@
       <c r="U153" s="1"/>
       <c r="V153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4614,7 +4756,7 @@
       <c r="U154" s="1"/>
       <c r="V154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4638,7 +4780,7 @@
       <c r="U155" s="1"/>
       <c r="V155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4662,7 +4804,7 @@
       <c r="U156" s="1"/>
       <c r="V156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4686,7 +4828,7 @@
       <c r="U157" s="1"/>
       <c r="V157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4710,7 +4852,7 @@
       <c r="U158" s="1"/>
       <c r="V158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4734,7 +4876,7 @@
       <c r="U159" s="1"/>
       <c r="V159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4758,7 +4900,7 @@
       <c r="U160" s="1"/>
       <c r="V160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4782,7 +4924,7 @@
       <c r="U161" s="1"/>
       <c r="V161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4806,7 +4948,7 @@
       <c r="U162" s="1"/>
       <c r="V162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4830,7 +4972,7 @@
       <c r="U163" s="1"/>
       <c r="V163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4854,7 +4996,7 @@
       <c r="U164" s="1"/>
       <c r="V164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4878,7 +5020,7 @@
       <c r="U165" s="1"/>
       <c r="V165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4902,7 +5044,7 @@
       <c r="U166" s="1"/>
       <c r="V166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4926,7 +5068,7 @@
       <c r="U167" s="1"/>
       <c r="V167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4950,7 +5092,7 @@
       <c r="U168" s="1"/>
       <c r="V168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4974,7 +5116,7 @@
       <c r="U169" s="1"/>
       <c r="V169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4998,7 +5140,7 @@
       <c r="U170" s="1"/>
       <c r="V170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5022,7 +5164,7 @@
       <c r="U171" s="1"/>
       <c r="V171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5046,7 +5188,7 @@
       <c r="U172" s="1"/>
       <c r="V172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5070,7 +5212,7 @@
       <c r="U173" s="1"/>
       <c r="V173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5094,7 +5236,7 @@
       <c r="U174" s="1"/>
       <c r="V174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5118,7 +5260,7 @@
       <c r="U175" s="1"/>
       <c r="V175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5142,7 +5284,7 @@
       <c r="U176" s="1"/>
       <c r="V176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5166,7 +5308,7 @@
       <c r="U177" s="1"/>
       <c r="V177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5190,7 +5332,7 @@
       <c r="U178" s="1"/>
       <c r="V178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5214,7 +5356,7 @@
       <c r="U179" s="1"/>
       <c r="V179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5238,7 +5380,7 @@
       <c r="U180" s="1"/>
       <c r="V180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5262,7 +5404,7 @@
       <c r="U181" s="1"/>
       <c r="V181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5286,7 +5428,7 @@
       <c r="U182" s="1"/>
       <c r="V182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5310,7 +5452,7 @@
       <c r="U183" s="1"/>
       <c r="V183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5334,7 +5476,7 @@
       <c r="U184" s="1"/>
       <c r="V184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5358,7 +5500,7 @@
       <c r="U185" s="1"/>
       <c r="V185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5382,7 +5524,7 @@
       <c r="U186" s="1"/>
       <c r="V186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5406,7 +5548,7 @@
       <c r="U187" s="1"/>
       <c r="V187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5430,7 +5572,7 @@
       <c r="U188" s="1"/>
       <c r="V188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5454,7 +5596,7 @@
       <c r="U189" s="1"/>
       <c r="V189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5478,7 +5620,7 @@
       <c r="U190" s="1"/>
       <c r="V190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5502,7 +5644,7 @@
       <c r="U191" s="1"/>
       <c r="V191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5526,7 +5668,7 @@
       <c r="U192" s="1"/>
       <c r="V192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5550,7 +5692,7 @@
       <c r="U193" s="1"/>
       <c r="V193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5574,7 +5716,7 @@
       <c r="U194" s="1"/>
       <c r="V194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5598,7 +5740,7 @@
       <c r="U195" s="1"/>
       <c r="V195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5622,7 +5764,7 @@
       <c r="U196" s="1"/>
       <c r="V196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5646,7 +5788,7 @@
       <c r="U197" s="1"/>
       <c r="V197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5670,7 +5812,7 @@
       <c r="U198" s="1"/>
       <c r="V198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5695,7 +5837,8 @@
       <c r="V199" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>